--- a/__encodeapk/闻秀艳公积金.xlsx
+++ b/__encodeapk/闻秀艳公积金.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB0B4E2-CA20-1741-8BD5-AC709BF2F9CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93740E5-4FCF-6247-A1EA-6B58FFCA3580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="460" windowWidth="18520" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14340" yWindow="460" windowWidth="18520" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="8" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1532,36 +1532,39 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="16">
-        <v>43277</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>33</v>
+      <c r="A54" s="14">
+        <v>43281</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C54" s="10">
-        <v>1078</v>
+        <v>622.54999999999995</v>
       </c>
       <c r="D54" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>06-26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="14">
-        <v>43281</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>34</v>
+        <v>06-30</v>
+      </c>
+      <c r="E54" s="6">
+        <v>49329.83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="6" customFormat="1">
+      <c r="A55" s="16">
+        <v>43294</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="C55" s="10">
-        <v>622.54999999999995</v>
+        <v>1306</v>
       </c>
       <c r="D55" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>06-30</v>
+        <f t="shared" ref="D55" si="4">TEXT(A55,"mm-dd")</f>
+        <v>07-13</v>
       </c>
       <c r="E55" s="6">
-        <v>49329.83</v>
+        <v>50635.83</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1578,9 +1581,7 @@
         <f t="shared" si="3"/>
         <v>08-13</v>
       </c>
-      <c r="E56" s="6">
-        <v>50635.83</v>
-      </c>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="16">

--- a/__encodeapk/闻秀艳公积金.xlsx
+++ b/__encodeapk/闻秀艳公积金.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93740E5-4FCF-6247-A1EA-6B58FFCA3580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7351E-7832-B247-BBEA-68679621E820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="460" windowWidth="18520" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10280" yWindow="460" windowWidth="18520" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="8" r:id="rId1"/>
@@ -138,15 +138,15 @@
     <t>提取资金支付</t>
   </si>
   <si>
-    <t xml:space="preserve">闻秀艳    </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>多云 20℃</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>晴 21℃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>闻秀艳</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -723,7 +723,7 @@
     </row>
     <row r="2" spans="1:20" ht="16">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>19</v>
@@ -760,7 +760,7 @@
         <v>2021-04-24</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="20" t="s">
         <v>22</v>
@@ -840,7 +840,7 @@
         <v>2021-04-27</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="1"/>
@@ -865,7 +865,7 @@
         <v>2021-04-28</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:20">
